--- a/data/dividends_info_20260217.xlsx
+++ b/data/dividends_info_20260217.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>53.25</v>
+        <v>54.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.314553990610329</v>
+        <v>1.290322580645161</v>
       </c>
       <c r="J2" t="n">
         <v>363</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>53.25</v>
+        <v>54.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.131455399061033</v>
+        <v>4.055299539170507</v>
       </c>
       <c r="J3" t="n">
         <v>90</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19.125</v>
+        <v>19.52499961853027</v>
       </c>
       <c r="I4" t="n">
-        <v>4.130718954248366</v>
+        <v>4.046094829370688</v>
       </c>
       <c r="J4" t="n">
         <v>90</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.651999950408936</v>
+        <v>5.723999977111816</v>
       </c>
       <c r="I5" t="n">
-        <v>3.361641926169038</v>
+        <v>3.319357106214894</v>
       </c>
       <c r="J5" t="n">
         <v>90</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.689999580383301</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="I6" t="n">
-        <v>5.874568753172284</v>
+        <v>5.814350974100138</v>
       </c>
       <c r="J6" t="n">
         <v>76</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19.39999961853027</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="I7" t="n">
-        <v>3.865979457461552</v>
+        <v>3.886010516310401</v>
       </c>
       <c r="J7" t="n">
         <v>76</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.789999961853027</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="I8" t="n">
-        <v>7.363770291738667</v>
+        <v>7.336757091736962</v>
       </c>
       <c r="J8" t="n">
         <v>62</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11.89500045776367</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="I9" t="n">
-        <v>4.539722397804121</v>
+        <v>4.496253036710188</v>
       </c>
       <c r="J9" t="n">
         <v>62</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.5</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="I10" t="n">
-        <v>5.333333333333334</v>
+        <v>5.396825233434488</v>
       </c>
       <c r="J10" t="n">
         <v>62</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>17.72999954223633</v>
+        <v>18.14500045776367</v>
       </c>
       <c r="I11" t="n">
-        <v>3.553299584126986</v>
+        <v>3.472030774903855</v>
       </c>
       <c r="J11" t="n">
         <v>62</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>27.85000038146973</v>
+        <v>27.71500015258789</v>
       </c>
       <c r="I12" t="n">
-        <v>0.323159780133728</v>
+        <v>0.3247338968230034</v>
       </c>
       <c r="J12" t="n">
         <v>34</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.1879999935626984</v>
+        <v>0.177499994635582</v>
       </c>
       <c r="I14" t="n">
-        <v>31.9148947098181</v>
+        <v>33.80281792299969</v>
       </c>
       <c r="J14" t="n">
         <v>-15</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.180000305175781</v>
+        <v>9.22599983215332</v>
       </c>
       <c r="I15" t="n">
-        <v>2.505446539803747</v>
+        <v>2.492954738611985</v>
       </c>
       <c r="J15" t="n">
         <v>-29</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.291999816894531</v>
+        <v>6.35200023651123</v>
       </c>
       <c r="I16" t="n">
-        <v>1.919898339406212</v>
+        <v>1.901763153370853</v>
       </c>
       <c r="J16" t="n">
         <v>-29</v>
@@ -3226,7 +3226,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3287,14 +3287,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3321,14 +3321,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3345,7 +3345,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3389,14 +3389,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3413,7 +3413,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3464,7 +3464,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3481,7 +3481,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3559,14 +3559,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3576,14 +3576,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3600,7 +3600,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3617,7 +3617,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3627,14 +3627,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3644,14 +3644,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3661,14 +3661,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3678,14 +3678,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3746,14 +3746,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3763,14 +3763,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3804,7 +3804,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3814,14 +3814,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3855,7 +3855,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3872,7 +3872,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3889,7 +3889,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3916,14 +3916,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3933,14 +3933,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3984,14 +3984,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4001,14 +4001,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4025,7 +4025,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4042,7 +4042,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4059,7 +4059,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4069,14 +4069,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4086,14 +4086,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4127,7 +4127,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4137,14 +4137,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4154,14 +4154,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4171,14 +4171,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4188,14 +4188,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4229,7 +4229,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4239,14 +4239,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4263,7 +4263,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4280,7 +4280,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4314,7 +4314,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4324,14 +4324,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4341,14 +4341,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4365,7 +4365,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4392,14 +4392,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4409,14 +4409,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4433,7 +4433,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4460,14 +4460,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4477,14 +4477,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4620,7 +4620,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4630,14 +4630,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4654,7 +4654,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4671,7 +4671,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4688,7 +4688,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4705,7 +4705,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4722,7 +4722,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4739,7 +4739,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4749,14 +4749,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4773,7 +4773,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4790,7 +4790,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4800,14 +4800,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4824,7 +4824,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4841,7 +4841,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4868,14 +4868,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4892,7 +4892,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4909,7 +4909,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4960,7 +4960,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4977,7 +4977,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4987,14 +4987,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5004,14 +5004,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5028,7 +5028,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5062,7 +5062,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5105,304 +5105,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AEDES S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DATALOGIC S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ENEL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ENEL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ecomembrane S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Eni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FNM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FRENDY ENERGY S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RECORDATI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TECHNOGYM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TECHNOGYM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-19</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>